--- a/docs/climatrade.xlsx
+++ b/docs/climatrade.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8EB9CF-5052-4ADE-9406-113A49F7AC8F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AB4C01-8E8E-4339-80D1-C4E800B5D48F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KAM dictionary" sheetId="1" r:id="rId1"/>
+    <sheet name="KSH log" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="UNI_AA_VERSION" hidden="1">"322.3.0"</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
   <si>
     <t>KAM</t>
   </si>
@@ -78,18 +79,12 @@
     <t>City</t>
   </si>
   <si>
-    <t>Social Behaviour</t>
-  </si>
-  <si>
     <t>Nature</t>
   </si>
   <si>
     <t>Stock markets</t>
   </si>
   <si>
-    <t>Clima</t>
-  </si>
-  <si>
     <t>Moon phase</t>
   </si>
   <si>
@@ -112,13 +107,117 @@
   </si>
   <si>
     <t>Twitter mentions (sentiment)</t>
+  </si>
+  <si>
+    <t>Searches (volume)</t>
+  </si>
+  <si>
+    <t>Searches (sentiment)</t>
+  </si>
+  <si>
+    <t>News mentions (volume)</t>
+  </si>
+  <si>
+    <t>News mentions (sentiment)</t>
+  </si>
+  <si>
+    <t>Searches (related terms)</t>
+  </si>
+  <si>
+    <t>Social Sentiment</t>
+  </si>
+  <si>
+    <t>Social Interest</t>
+  </si>
+  <si>
+    <t>Natural phenomena</t>
+  </si>
+  <si>
+    <t>KAM1</t>
+  </si>
+  <si>
+    <t>KAM2</t>
+  </si>
+  <si>
+    <t>Type of correlation</t>
+  </si>
+  <si>
+    <t>Lag (days)</t>
+  </si>
+  <si>
+    <t>Causality reason</t>
+  </si>
+  <si>
+    <t>Capture freq</t>
+  </si>
+  <si>
+    <t>IBEX35</t>
+  </si>
+  <si>
+    <t>Asset family</t>
+  </si>
+  <si>
+    <t>Country index</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Country </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>feeling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> index</t>
+    </r>
+  </si>
+  <si>
+    <t>CLI</t>
+  </si>
+  <si>
+    <t>BLI</t>
+  </si>
+  <si>
+    <t>CCI</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>Country, Region</t>
+  </si>
+  <si>
+    <t>Negotiable?</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +228,14 @@
     <font>
       <b/>
       <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -162,9 +269,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,17 +559,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D2:J16"/>
+  <dimension ref="D2:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G6" sqref="G6:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="4:10" x14ac:dyDescent="0.25">
@@ -468,86 +584,244 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
+    <row r="6" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="4:10" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="D9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="J9" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="10" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
         <v>13</v>
       </c>
-      <c r="E10" t="s">
+      <c r="I11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="J15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" t="s">
         <v>16</v>
       </c>
-      <c r="F10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="E13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="E16" t="s">
-        <v>22</v>
+    </row>
+    <row r="25" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E28" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C653361-0E28-411E-986A-897E7409EC03}">
+  <dimension ref="B7:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/docs/climatrade.xlsx
+++ b/docs/climatrade.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AB4C01-8E8E-4339-80D1-C4E800B5D48F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A129565-8370-49A2-932F-53C7FB261EB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,17 +34,22 @@
     <definedName name="UNI_RET_UNIT" hidden="1">2</definedName>
     <definedName name="UNI_RET_VALUE" hidden="1">16</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="105">
   <si>
     <t>KAM</t>
   </si>
@@ -88,21 +93,12 @@
     <t>Moon phase</t>
   </si>
   <si>
-    <t>Music listened</t>
-  </si>
-  <si>
     <t>Weekday</t>
   </si>
   <si>
-    <t>FIFA ranking</t>
-  </si>
-  <si>
     <t>Leading Indicator</t>
   </si>
   <si>
-    <t>ODCE LI</t>
-  </si>
-  <si>
     <t>Twitter mentions (volume)</t>
   </si>
   <si>
@@ -163,32 +159,6 @@
     <t>Daily</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Country </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>feeling</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> index</t>
-    </r>
-  </si>
-  <si>
     <t>CLI</t>
   </si>
   <si>
@@ -211,13 +181,196 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Composite leading indicator (CLI)</t>
+  </si>
+  <si>
+    <t>Business confidence index (BCI)</t>
+  </si>
+  <si>
+    <t>Consumer confidence index (CCI)</t>
+  </si>
+  <si>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>https://data.oecd.org/leadind/composite-leading-indicator-cli.htm</t>
+  </si>
+  <si>
+    <t>https://data.oecd.org/leadind/business-confidence-index-bci.htm#indicator-chart</t>
+  </si>
+  <si>
+    <t>https://data.oecd.org/leadind/consumer-confidence-index-cci.htm#indicator-chart</t>
+  </si>
+  <si>
+    <t>Synthetic leading indicator</t>
+  </si>
+  <si>
+    <t>Technical source</t>
+  </si>
+  <si>
+    <t>Internal preffix</t>
+  </si>
+  <si>
+    <t>YFIN:</t>
+  </si>
+  <si>
+    <t>CLND:</t>
+  </si>
+  <si>
+    <t>OECD:</t>
+  </si>
+  <si>
+    <t>TWIT:</t>
+  </si>
+  <si>
+    <t>NEWS:</t>
+  </si>
+  <si>
+    <t>FIFA:</t>
+  </si>
+  <si>
+    <t>GTRN:</t>
+  </si>
+  <si>
+    <t>SPTY:</t>
+  </si>
+  <si>
+    <t>Direct</t>
+  </si>
+  <si>
+    <t>Duplex</t>
+  </si>
+  <si>
+    <t>WTHR:</t>
+  </si>
+  <si>
+    <t>TMIN</t>
+  </si>
+  <si>
+    <t>TMAX</t>
+  </si>
+  <si>
+    <t>TAVG</t>
+  </si>
+  <si>
+    <t>PRCP</t>
+  </si>
+  <si>
+    <t>Earth, weather and calendar</t>
+  </si>
+  <si>
+    <t>Weather in key cities (max. temp.)</t>
+  </si>
+  <si>
+    <t>Weather in key cities (min. temp.)</t>
+  </si>
+  <si>
+    <t>ord</t>
+  </si>
+  <si>
+    <t>Weather in key cities (avg. temp.)</t>
+  </si>
+  <si>
+    <t>Initial date available</t>
+  </si>
+  <si>
+    <t>Music listened: DANCEABILITY</t>
+  </si>
+  <si>
+    <t>Music listened: ENERGY</t>
+  </si>
+  <si>
+    <t>Music listened: TEMPO</t>
+  </si>
+  <si>
+    <t>Music listened: KEY</t>
+  </si>
+  <si>
+    <t>Music listened: LODNESS</t>
+  </si>
+  <si>
+    <t>Music listened: SPEECHNESS</t>
+  </si>
+  <si>
+    <t>Music listened: ACOUSTICNESS</t>
+  </si>
+  <si>
+    <t>Music listened: INSTRUMENTALNESS</t>
+  </si>
+  <si>
+    <t>Music listened: LIVENESS</t>
+  </si>
+  <si>
+    <t>Music listened: VALENCE</t>
+  </si>
+  <si>
+    <t>DANCEABILITY</t>
+  </si>
+  <si>
+    <t>ENERGY</t>
+  </si>
+  <si>
+    <t>TEMPO</t>
+  </si>
+  <si>
+    <t>KEY</t>
+  </si>
+  <si>
+    <t>LODNESS</t>
+  </si>
+  <si>
+    <t>SPEECHNESS</t>
+  </si>
+  <si>
+    <t>ACOUSTICNESS</t>
+  </si>
+  <si>
+    <t>INSTRUMENTALNESS</t>
+  </si>
+  <si>
+    <t>LIVENESS</t>
+  </si>
+  <si>
+    <t>VALENCE</t>
+  </si>
+  <si>
+    <t>https://rpubs.com/PeterDola/SpotifyTracks</t>
+  </si>
+  <si>
+    <t>Social synthom</t>
+  </si>
+  <si>
+    <t>https://www.fifa.com/fifa-world-ranking/men</t>
+  </si>
+  <si>
+    <t>POINTS</t>
+  </si>
+  <si>
+    <t>FIFA Men's Ranking: points</t>
+  </si>
+  <si>
+    <t>Country development ranking</t>
+  </si>
+  <si>
+    <t>RANKING</t>
+  </si>
+  <si>
+    <t>FIFA Men's Ranking: ranking</t>
+  </si>
+  <si>
+    <t>https://www1.ncdc.noaa.gov/pub/data/ghcn/daily/readme.txt</t>
+  </si>
+  <si>
+    <t>…</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,8 +395,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,8 +427,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -265,22 +442,150 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -559,269 +864,1327 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D2:J28"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="C1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="4" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="4"/>
+    <col min="6" max="6" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" style="5" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="G6" t="s">
+    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="3:14" s="3" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="27"/>
+      <c r="K10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="27"/>
+      <c r="M10" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="N10" s="22"/>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C11" s="7">
+        <v>2</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="G7" t="s">
+      <c r="I11" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="28"/>
+      <c r="K11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="28"/>
+      <c r="M11" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="N11" s="24"/>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C12" s="7">
+        <v>3</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="G8" t="s">
+      <c r="I12" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="28"/>
+      <c r="K12" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="28"/>
+      <c r="M12" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="N12" s="24"/>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C13" s="7">
+        <v>2</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="4:10" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="D9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="I13" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="28"/>
+      <c r="K13" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="28"/>
+      <c r="M13" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="N13" s="24"/>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C14" s="7">
+        <v>3</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="28"/>
+      <c r="K14" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" s="28"/>
+      <c r="M14" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="N14" s="24"/>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C15" s="7">
+        <v>2</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" s="28"/>
+      <c r="K15" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="28"/>
+      <c r="M15" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="N15" s="24"/>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C16" s="7">
+        <v>3</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" s="28"/>
+      <c r="K16" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16" s="28"/>
+      <c r="M16" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="N16" s="24"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C17" s="7">
+        <v>2</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" s="28"/>
+      <c r="K17" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L17" s="28"/>
+      <c r="M17" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="N17" s="24"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C18" s="7">
+        <v>3</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" s="28"/>
+      <c r="K18" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L18" s="28"/>
+      <c r="M18" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="N18" s="24"/>
+    </row>
+    <row r="19" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="7">
+        <v>4</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19" s="29"/>
+      <c r="K19" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19" s="29"/>
+      <c r="M19" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="N19" s="26"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C20" s="7">
+        <v>5</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="27"/>
+      <c r="F20" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" s="27"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="N20" s="22"/>
+    </row>
+    <row r="21" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="7">
+        <v>6</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="29"/>
+      <c r="F21" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" s="29"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="N21" s="26"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C22" s="7">
+        <v>7</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="27"/>
+      <c r="F22" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J22" s="27"/>
+      <c r="K22" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" s="27"/>
+      <c r="M22" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="N22" s="22"/>
+    </row>
+    <row r="23" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="7">
+        <v>8</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="29"/>
+      <c r="F23" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23" s="29"/>
+      <c r="K23" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L23" s="29"/>
+      <c r="M23" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="N23" s="26"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C24" s="7">
+        <v>9</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="27"/>
+      <c r="F24" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J24" s="27"/>
+      <c r="K24" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L24" s="27"/>
+      <c r="M24" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="N24" s="22"/>
+    </row>
+    <row r="25" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="7">
+        <v>10</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="29"/>
+      <c r="F25" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="J25" s="29"/>
+      <c r="K25" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L25" s="29"/>
+      <c r="M25" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="N25" s="26"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C26" s="7">
         <v>11</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="D26" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="27"/>
+      <c r="F26" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J26" s="27"/>
+      <c r="K26" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L26" s="27"/>
+      <c r="M26" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="N26" s="22"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C27" s="7">
+        <v>12</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="28"/>
+      <c r="F27" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J27" s="28"/>
+      <c r="K27" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L27" s="28"/>
+      <c r="M27" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="N27" s="24"/>
+    </row>
+    <row r="28" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="7">
+        <v>13</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="29"/>
+      <c r="F28" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="J28" s="29"/>
+      <c r="K28" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L28" s="29"/>
+      <c r="M28" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="N28" s="26"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C29" s="7">
+        <v>14</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" s="3" t="s">
+      <c r="F29" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L29" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="M29" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="N29" s="22"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C30" s="7">
+        <v>15</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30" s="14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="H30" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="M30" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="N30" s="24"/>
+    </row>
+    <row r="31" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="7">
+        <v>16</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="I10" t="s">
-        <v>9</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="F31" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G31" s="18" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="11" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="E11" s="2" t="s">
+      <c r="H31" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="M31" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="N31" s="26"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C32" s="7">
+        <v>17</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J32" s="10">
+        <v>2017</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="M32" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="N32" s="22"/>
+    </row>
+    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C33" s="7">
+        <v>18</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F33" s="15"/>
+      <c r="G33" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J33" s="14">
+        <v>2017</v>
+      </c>
+      <c r="K33" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L33" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="M33" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="N33" s="24"/>
+    </row>
+    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C34" s="7">
+        <v>19</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F34" s="15"/>
+      <c r="G34" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J34" s="14">
+        <v>2017</v>
+      </c>
+      <c r="K34" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L34" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="M34" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="N34" s="24"/>
+    </row>
+    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C35" s="7">
+        <v>20</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F35" s="15"/>
+      <c r="G35" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J35" s="14">
+        <v>2017</v>
+      </c>
+      <c r="K35" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L35" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="M35" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="N35" s="24"/>
+    </row>
+    <row r="36" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C36" s="7">
+        <v>21</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F36" s="15"/>
+      <c r="G36" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="I36" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J36" s="14">
+        <v>2017</v>
+      </c>
+      <c r="K36" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L36" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="M36" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="N36" s="24"/>
+    </row>
+    <row r="37" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C37" s="7">
+        <v>22</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" s="15"/>
+      <c r="G37" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J37" s="14">
+        <v>2017</v>
+      </c>
+      <c r="K37" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L37" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="M37" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="N37" s="24"/>
+    </row>
+    <row r="38" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C38" s="7">
+        <v>23</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F38" s="15"/>
+      <c r="G38" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="I38" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J38" s="14">
+        <v>2017</v>
+      </c>
+      <c r="K38" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L38" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="M38" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="N38" s="24"/>
+    </row>
+    <row r="39" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C39" s="7">
+        <v>24</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F39" s="15"/>
+      <c r="G39" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="I39" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J39" s="14">
+        <v>2017</v>
+      </c>
+      <c r="K39" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L39" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="M39" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="N39" s="24"/>
+    </row>
+    <row r="40" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C40" s="7">
+        <v>25</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F40" s="15"/>
+      <c r="G40" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="I40" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J40" s="14">
+        <v>2017</v>
+      </c>
+      <c r="K40" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L40" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="M40" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="N40" s="24"/>
+    </row>
+    <row r="41" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="7">
+        <v>26</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="F41" s="19"/>
+      <c r="G41" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H41" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="I41" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="J41" s="18">
+        <v>2017</v>
+      </c>
+      <c r="K41" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L41" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="M41" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="N41" s="26"/>
+    </row>
+    <row r="42" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C42" s="7">
+        <v>27</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J42" s="10">
+        <v>1993</v>
+      </c>
+      <c r="K42" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L42" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="M42" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="N42" s="22"/>
+    </row>
+    <row r="43" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="7">
         <v>28</v>
       </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="D43" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="H43" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="I43" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="J43" s="18">
+        <v>1993</v>
+      </c>
+      <c r="K43" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="L43" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="M43" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="N43" s="26"/>
+    </row>
+    <row r="44" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C44" s="7">
+        <v>29</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10">
+        <v>1960</v>
+      </c>
+      <c r="K44" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="E12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" t="s">
-        <v>44</v>
-      </c>
-      <c r="J13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="J15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="E16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="L44" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="M44" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="N44" s="22"/>
+    </row>
+    <row r="45" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C45" s="7">
+        <v>30</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H45" s="15" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E28" s="2"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14">
+        <v>1960</v>
+      </c>
+      <c r="K45" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L45" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="M45" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="N45" s="24"/>
+    </row>
+    <row r="46" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C46" s="7">
+        <v>31</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14">
+        <v>1960</v>
+      </c>
+      <c r="K46" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L46" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="M46" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="N46" s="24"/>
+    </row>
+    <row r="47" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="7">
+        <v>32</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H47" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18">
+        <v>1960</v>
+      </c>
+      <c r="K47" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L47" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="M47" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="N47" s="26"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L29" r:id="rId1" xr:uid="{0BA385F9-5706-486F-B185-E32C44EEF3EF}"/>
+    <hyperlink ref="L31" r:id="rId2" location="indicator-chart" xr:uid="{07D752D9-38EA-479B-ACD6-8BAA3B19D8EB}"/>
+    <hyperlink ref="L42" r:id="rId3" xr:uid="{6E2D0B25-2C25-412E-938F-81A15F9104D9}"/>
+    <hyperlink ref="L43" r:id="rId4" xr:uid="{3AC230E9-BD89-47CA-ABA4-4380DC79E7AA}"/>
+    <hyperlink ref="L44" r:id="rId5" xr:uid="{EC1A38E8-F0D1-4AA9-BAC2-99EB36DCADA1}"/>
+    <hyperlink ref="L45:L47" r:id="rId6" display="https://www1.ncdc.noaa.gov/pub/data/ghcn/daily/readme.txt" xr:uid="{D004E9AB-BEC3-4895-A2FA-4638CB94D354}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C653361-0E28-411E-986A-897E7409EC03}">
-  <dimension ref="B7:F7"/>
+  <dimension ref="B7:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:F7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>32</v>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/docs/climatrade.xlsx
+++ b/docs/climatrade.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B748E6F5-975B-4B01-958D-E0F797259E83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEDB499-0925-46EE-9A5C-2AF8DA6ACCEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="233">
   <si>
     <t>KAM</t>
   </si>
@@ -412,9 +412,6 @@
     <t>El Dow Jones, como frecuentemente es conocido, y cuyo nombre completo oficial es el Promedio Industrial Dow Jones o Dow Jones Industrial Average (DJIA), es un índice que rastrea a las 30 compañías más grandes que son cotizadas públicamente en la Bolsa de Nueva York (El New York Stock Exchange) y la bolsa Nasdaq</t>
   </si>
   <si>
-    <t>Bolsa USA</t>
-  </si>
-  <si>
     <t>Bolsa de Nueva York</t>
   </si>
   <si>
@@ -523,9 +520,6 @@
     <t>Índices de actitud del mercado</t>
   </si>
   <si>
-    <t>Índices de volatilidad</t>
-  </si>
-  <si>
     <t>Índice del miedo</t>
   </si>
   <si>
@@ -533,6 +527,228 @@
   </si>
   <si>
     <t>El denominado “índice del miedo”, más conocido como índice VIX (Volatility Index), mide la volatilidad de las bolsas americanas, más concretamente del S&amp;P 500. De ahí, que sea un buen termómetro para medir los momentos de calma o nerviosismo de los mercados financieros</t>
+  </si>
+  <si>
+    <t>USD/EUR (EUR=X)</t>
+  </si>
+  <si>
+    <t>Moneda Euro</t>
+  </si>
+  <si>
+    <t>USD/GBP (GBP=X)</t>
+  </si>
+  <si>
+    <t>Euro</t>
+  </si>
+  <si>
+    <t>Libra</t>
+  </si>
+  <si>
+    <t>USD/MXN (MXN=X)</t>
+  </si>
+  <si>
+    <t>Moneda Peso Mexico</t>
+  </si>
+  <si>
+    <t>Moneda Peso Argentina</t>
+  </si>
+  <si>
+    <t>Moneda Libra UK</t>
+  </si>
+  <si>
+    <t>USD/ARS (ARS=X)</t>
+  </si>
+  <si>
+    <t>Moneda Real Brasil</t>
+  </si>
+  <si>
+    <t>RealBrasil</t>
+  </si>
+  <si>
+    <t>USD/BRL (BRL=X)</t>
+  </si>
+  <si>
+    <t>USD/CLP (CLP=X)</t>
+  </si>
+  <si>
+    <t>Moneda Peso Chile</t>
+  </si>
+  <si>
+    <t>PesoChile</t>
+  </si>
+  <si>
+    <t>USD/PEN (PEN=X)</t>
+  </si>
+  <si>
+    <t>SolPerú</t>
+  </si>
+  <si>
+    <t>Moneda Sol Perú</t>
+  </si>
+  <si>
+    <t>USD/COP (COP=X)</t>
+  </si>
+  <si>
+    <t>Moneda Peso Colombia</t>
+  </si>
+  <si>
+    <t>PesoColombia</t>
+  </si>
+  <si>
+    <t>PesoMexico</t>
+  </si>
+  <si>
+    <t>PesoArgentina</t>
+  </si>
+  <si>
+    <t>Divisas latinoamericanas</t>
+  </si>
+  <si>
+    <t>Gas natural</t>
+  </si>
+  <si>
+    <t>Natural Gas Jan 22 (NG=F)</t>
+  </si>
+  <si>
+    <t>Dólar</t>
+  </si>
+  <si>
+    <t>Petróleo</t>
+  </si>
+  <si>
+    <t>Cobre</t>
+  </si>
+  <si>
+    <t>Oro</t>
+  </si>
+  <si>
+    <t>Plata</t>
+  </si>
+  <si>
+    <t>Índice SP500</t>
+  </si>
+  <si>
+    <t>Crude Oil Feb 22 (CL=F)</t>
+  </si>
+  <si>
+    <t>Moneda Dólar USA</t>
+  </si>
+  <si>
+    <t>Copper Mar 22 (HG=F)</t>
+  </si>
+  <si>
+    <t>Gold Feb 22 (GC=F)</t>
+  </si>
+  <si>
+    <t>Silver Mar 22 (SI=F)</t>
+  </si>
+  <si>
+    <t>Divisas de referencia</t>
+  </si>
+  <si>
+    <t>Empresas en latinoamérica</t>
+  </si>
+  <si>
+    <t>Índices de volatilidad/miedo/tensión</t>
+  </si>
+  <si>
+    <t>Banco Santander, S.A. (SAN)</t>
+  </si>
+  <si>
+    <t>BancoSantander</t>
+  </si>
+  <si>
+    <t>BBVA</t>
+  </si>
+  <si>
+    <t>Banco Bilbao Vizcaya Argentaria, S.A. (BBVA)</t>
+  </si>
+  <si>
+    <t>Telefónica, S.A. (TEF)</t>
+  </si>
+  <si>
+    <t>Telefónica</t>
+  </si>
+  <si>
+    <t>Divisas</t>
+  </si>
+  <si>
+    <t>Empresas</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Europa (zona €)</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Brasil</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Perú</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Latinoamérica</t>
+  </si>
+  <si>
+    <t>Canadá</t>
+  </si>
+  <si>
+    <t>DólarCanadça</t>
+  </si>
+  <si>
+    <t>USD/CAD (CAD=X)</t>
+  </si>
+  <si>
+    <t>Materias primas metales</t>
+  </si>
+  <si>
+    <t>Materias primas petróleo</t>
+  </si>
+  <si>
+    <t>Materias primas gas</t>
+  </si>
+  <si>
+    <t>Divisas exportadoras petróleo</t>
+  </si>
+  <si>
+    <t>Divisas exportadoras metales</t>
+  </si>
+  <si>
+    <t>DólarAustraliano</t>
+  </si>
+  <si>
+    <t>USD/AUD (AUD=X)</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>DólarNeozelandés</t>
+  </si>
+  <si>
+    <t>USD/NZD (NZD=X)</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>https://datosmacro.expansion.com/bono</t>
   </si>
 </sst>
 </file>
@@ -1033,34 +1249,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13394C52-13BF-4879-9BED-75C0D250A696}">
-  <dimension ref="A2:L27"/>
+  <dimension ref="A2:M42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="24.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="31.7109375" customWidth="1"/>
     <col min="7" max="7" width="5.28515625" customWidth="1"/>
     <col min="8" max="8" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="33" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" customWidth="1"/>
-    <col min="12" max="12" width="34" customWidth="1"/>
+    <col min="11" max="12" width="13.140625" customWidth="1"/>
+    <col min="13" max="13" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E2" s="30" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E3" s="30" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>97</v>
       </c>
@@ -1082,11 +1303,20 @@
       <c r="K6" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>103</v>
       </c>
+      <c r="E7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" t="s">
+        <v>98</v>
+      </c>
       <c r="G7">
         <v>2</v>
       </c>
@@ -1102,11 +1332,20 @@
       <c r="K7" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>108</v>
       </c>
+      <c r="E8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" t="s">
+        <v>98</v>
+      </c>
       <c r="G8">
         <v>3</v>
       </c>
@@ -1123,13 +1362,19 @@
         <v>112</v>
       </c>
       <c r="L8" t="s">
+        <v>112</v>
+      </c>
+      <c r="M8" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>114</v>
       </c>
+      <c r="E9" t="s">
+        <v>97</v>
+      </c>
       <c r="F9" t="s">
         <v>115</v>
       </c>
@@ -1145,232 +1390,740 @@
       <c r="J9" t="s">
         <v>118</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>97</v>
+      </c>
       <c r="F10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G10">
         <v>5</v>
       </c>
       <c r="H10" t="s">
+        <v>120</v>
+      </c>
+      <c r="I10" t="s">
         <v>121</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>122</v>
       </c>
-      <c r="J10" t="s">
+      <c r="M10" t="s">
         <v>123</v>
       </c>
-      <c r="L10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" t="s">
+        <v>115</v>
+      </c>
       <c r="G11">
         <v>6</v>
       </c>
       <c r="H11" t="s">
+        <v>124</v>
+      </c>
+      <c r="I11" t="s">
         <v>125</v>
       </c>
-      <c r="I11" t="s">
+      <c r="M11" t="s">
         <v>126</v>
       </c>
-      <c r="L11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
       <c r="G12">
         <v>7</v>
       </c>
+      <c r="H12" t="s">
+        <v>124</v>
+      </c>
       <c r="I12" t="s">
+        <v>127</v>
+      </c>
+      <c r="M12" t="s">
         <v>128</v>
       </c>
-      <c r="L12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" t="s">
+        <v>115</v>
+      </c>
       <c r="G13">
         <v>8</v>
       </c>
+      <c r="H13" t="s">
+        <v>124</v>
+      </c>
       <c r="I13" t="s">
+        <v>129</v>
+      </c>
+      <c r="M13" t="s">
         <v>130</v>
       </c>
-      <c r="L13" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" t="s">
+        <v>115</v>
+      </c>
       <c r="G14">
         <v>9</v>
       </c>
+      <c r="H14" t="s">
+        <v>124</v>
+      </c>
       <c r="I14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14" t="s">
         <v>132</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
+        <v>132</v>
+      </c>
+      <c r="M14" t="s">
         <v>133</v>
       </c>
-      <c r="L14" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" t="s">
+        <v>115</v>
+      </c>
       <c r="G15">
         <v>10</v>
       </c>
+      <c r="H15" t="s">
+        <v>124</v>
+      </c>
       <c r="I15" t="s">
+        <v>134</v>
+      </c>
+      <c r="K15" t="s">
         <v>135</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
+        <v>135</v>
+      </c>
+      <c r="M15" t="s">
         <v>136</v>
       </c>
-      <c r="L15" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" t="s">
+        <v>115</v>
+      </c>
       <c r="G16">
         <v>11</v>
       </c>
+      <c r="H16" t="s">
+        <v>124</v>
+      </c>
       <c r="I16" t="s">
+        <v>137</v>
+      </c>
+      <c r="K16" t="s">
         <v>138</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
+        <v>138</v>
+      </c>
+      <c r="M16" t="s">
         <v>139</v>
       </c>
-      <c r="L16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" t="s">
+        <v>115</v>
+      </c>
       <c r="G17">
         <v>12</v>
       </c>
+      <c r="H17" t="s">
+        <v>124</v>
+      </c>
       <c r="I17" t="s">
+        <v>140</v>
+      </c>
+      <c r="K17" t="s">
         <v>141</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
+        <v>141</v>
+      </c>
+      <c r="M17" t="s">
         <v>142</v>
       </c>
-      <c r="L17" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" t="s">
+        <v>115</v>
+      </c>
       <c r="G18">
         <v>13</v>
       </c>
+      <c r="H18" t="s">
+        <v>124</v>
+      </c>
       <c r="I18" t="s">
+        <v>143</v>
+      </c>
+      <c r="K18" t="s">
         <v>144</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
+        <v>144</v>
+      </c>
+      <c r="M18" t="s">
         <v>145</v>
       </c>
-      <c r="L18" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" t="s">
+        <v>115</v>
+      </c>
       <c r="G19">
         <v>14</v>
       </c>
+      <c r="H19" t="s">
+        <v>124</v>
+      </c>
       <c r="I19" t="s">
+        <v>146</v>
+      </c>
+      <c r="K19" t="s">
         <v>147</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
+        <v>147</v>
+      </c>
+      <c r="M19" t="s">
         <v>148</v>
       </c>
-      <c r="L19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" t="s">
+        <v>115</v>
+      </c>
       <c r="G20">
         <v>15</v>
       </c>
+      <c r="H20" t="s">
+        <v>124</v>
+      </c>
       <c r="I20" t="s">
+        <v>149</v>
+      </c>
+      <c r="K20" t="s">
         <v>150</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
+        <v>150</v>
+      </c>
+      <c r="M20" t="s">
         <v>151</v>
       </c>
-      <c r="L20" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" t="s">
+        <v>115</v>
+      </c>
       <c r="G21">
         <v>16</v>
       </c>
+      <c r="H21" t="s">
+        <v>191</v>
+      </c>
       <c r="I21" t="s">
+        <v>152</v>
+      </c>
+      <c r="J21" t="s">
         <v>153</v>
       </c>
-      <c r="J21" t="s">
+      <c r="M21" t="s">
         <v>154</v>
       </c>
-      <c r="L21" t="s">
+    </row>
+    <row r="22" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E22" t="s">
-        <v>156</v>
-      </c>
       <c r="F22" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="G22">
         <v>17</v>
       </c>
       <c r="H22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J22" t="s">
         <v>96</v>
       </c>
-      <c r="L22" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="M22" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>206</v>
+      </c>
       <c r="G23">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>197</v>
+      </c>
+      <c r="I23" t="s">
+        <v>186</v>
+      </c>
+      <c r="J23" t="s">
+        <v>108</v>
+      </c>
+      <c r="L23" t="s">
+        <v>208</v>
+      </c>
+      <c r="M23" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>206</v>
+      </c>
       <c r="G24">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>197</v>
+      </c>
+      <c r="I24" t="s">
+        <v>162</v>
+      </c>
+      <c r="J24" t="s">
+        <v>159</v>
+      </c>
+      <c r="L24" t="s">
+        <v>210</v>
+      </c>
+      <c r="M24" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>206</v>
+      </c>
       <c r="G25">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>197</v>
+      </c>
+      <c r="I25" t="s">
+        <v>163</v>
+      </c>
+      <c r="J25" t="s">
+        <v>161</v>
+      </c>
+      <c r="L25" t="s">
+        <v>209</v>
+      </c>
+      <c r="M25" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>206</v>
+      </c>
       <c r="G26">
         <v>21</v>
       </c>
-    </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>183</v>
+      </c>
+      <c r="I26" t="s">
+        <v>181</v>
+      </c>
+      <c r="J26" t="s">
+        <v>164</v>
+      </c>
+      <c r="L26" t="s">
+        <v>211</v>
+      </c>
+      <c r="M26" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>206</v>
+      </c>
       <c r="G27">
         <v>22</v>
+      </c>
+      <c r="H27" t="s">
+        <v>183</v>
+      </c>
+      <c r="I27" t="s">
+        <v>182</v>
+      </c>
+      <c r="J27" t="s">
+        <v>168</v>
+      </c>
+      <c r="L27" t="s">
+        <v>212</v>
+      </c>
+      <c r="M27" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>206</v>
+      </c>
+      <c r="G28">
+        <v>23</v>
+      </c>
+      <c r="H28" t="s">
+        <v>183</v>
+      </c>
+      <c r="I28" t="s">
+        <v>170</v>
+      </c>
+      <c r="J28" t="s">
+        <v>171</v>
+      </c>
+      <c r="L28" t="s">
+        <v>213</v>
+      </c>
+      <c r="M28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>206</v>
+      </c>
+      <c r="G29">
+        <v>24</v>
+      </c>
+      <c r="H29" t="s">
+        <v>183</v>
+      </c>
+      <c r="I29" t="s">
+        <v>174</v>
+      </c>
+      <c r="J29" t="s">
+        <v>172</v>
+      </c>
+      <c r="L29" t="s">
+        <v>214</v>
+      </c>
+      <c r="M29" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>206</v>
+      </c>
+      <c r="G30">
+        <v>25</v>
+      </c>
+      <c r="H30" t="s">
+        <v>183</v>
+      </c>
+      <c r="I30" t="s">
+        <v>176</v>
+      </c>
+      <c r="J30" t="s">
+        <v>175</v>
+      </c>
+      <c r="L30" t="s">
+        <v>215</v>
+      </c>
+      <c r="M30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>206</v>
+      </c>
+      <c r="G31">
+        <v>26</v>
+      </c>
+      <c r="H31" t="s">
+        <v>183</v>
+      </c>
+      <c r="I31" t="s">
+        <v>180</v>
+      </c>
+      <c r="J31" t="s">
+        <v>178</v>
+      </c>
+      <c r="L31" t="s">
+        <v>216</v>
+      </c>
+      <c r="M31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="32" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>207</v>
+      </c>
+      <c r="G32">
+        <v>27</v>
+      </c>
+      <c r="H32" t="s">
+        <v>198</v>
+      </c>
+      <c r="I32" t="s">
+        <v>201</v>
+      </c>
+      <c r="J32" t="s">
+        <v>200</v>
+      </c>
+      <c r="L32" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="33" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>207</v>
+      </c>
+      <c r="G33">
+        <v>28</v>
+      </c>
+      <c r="H33" t="s">
+        <v>198</v>
+      </c>
+      <c r="I33" t="s">
+        <v>202</v>
+      </c>
+      <c r="J33" t="s">
+        <v>203</v>
+      </c>
+      <c r="L33" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="34" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>207</v>
+      </c>
+      <c r="G34">
+        <v>29</v>
+      </c>
+      <c r="H34" t="s">
+        <v>198</v>
+      </c>
+      <c r="I34" t="s">
+        <v>205</v>
+      </c>
+      <c r="J34" t="s">
+        <v>204</v>
+      </c>
+      <c r="L34" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="35" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>112</v>
+      </c>
+      <c r="G35">
+        <v>30</v>
+      </c>
+      <c r="H35" t="s">
+        <v>222</v>
+      </c>
+      <c r="I35" t="s">
+        <v>187</v>
+      </c>
+      <c r="J35" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="36" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>112</v>
+      </c>
+      <c r="G36">
+        <v>31</v>
+      </c>
+      <c r="H36" t="s">
+        <v>221</v>
+      </c>
+      <c r="I36" t="s">
+        <v>188</v>
+      </c>
+      <c r="J36" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="37" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>112</v>
+      </c>
+      <c r="G37">
+        <v>32</v>
+      </c>
+      <c r="H37" t="s">
+        <v>221</v>
+      </c>
+      <c r="I37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J37" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="38" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>112</v>
+      </c>
+      <c r="G38">
+        <v>33</v>
+      </c>
+      <c r="H38" t="s">
+        <v>221</v>
+      </c>
+      <c r="I38" t="s">
+        <v>190</v>
+      </c>
+      <c r="J38" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="39" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>112</v>
+      </c>
+      <c r="G39">
+        <v>34</v>
+      </c>
+      <c r="H39" t="s">
+        <v>223</v>
+      </c>
+      <c r="I39" t="s">
+        <v>184</v>
+      </c>
+      <c r="J39" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="40" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>206</v>
+      </c>
+      <c r="G40">
+        <v>35</v>
+      </c>
+      <c r="H40" t="s">
+        <v>224</v>
+      </c>
+      <c r="I40" t="s">
+        <v>219</v>
+      </c>
+      <c r="J40" t="s">
+        <v>220</v>
+      </c>
+      <c r="L40" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="41" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>206</v>
+      </c>
+      <c r="G41">
+        <v>36</v>
+      </c>
+      <c r="H41" t="s">
+        <v>225</v>
+      </c>
+      <c r="I41" t="s">
+        <v>226</v>
+      </c>
+      <c r="J41" t="s">
+        <v>227</v>
+      </c>
+      <c r="L41" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="42" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>206</v>
+      </c>
+      <c r="G42">
+        <v>37</v>
+      </c>
+      <c r="H42" t="s">
+        <v>225</v>
+      </c>
+      <c r="I42" t="s">
+        <v>229</v>
+      </c>
+      <c r="J42" t="s">
+        <v>230</v>
+      </c>
+      <c r="L42" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{BE6FF6B4-A4DC-4F76-BCCD-FC305BD03D7F}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{329CA02C-0DFD-4AA6-AF29-30F86E6C26EF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/docs/climatrade.xlsx
+++ b/docs/climatrade.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEDB499-0925-46EE-9A5C-2AF8DA6ACCEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D48A89-D8C1-4B0F-8CE6-D2359D01320D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="248">
   <si>
     <t>KAM</t>
   </si>
@@ -709,9 +709,6 @@
     <t>Canadá</t>
   </si>
   <si>
-    <t>DólarCanadça</t>
-  </si>
-  <si>
     <t>USD/CAD (CAD=X)</t>
   </si>
   <si>
@@ -749,6 +746,54 @@
   </si>
   <si>
     <t>https://datosmacro.expansion.com/bono</t>
+  </si>
+  <si>
+    <t>Bonos americanos</t>
+  </si>
+  <si>
+    <t>Bonos europeos</t>
+  </si>
+  <si>
+    <t>DólarCanadá</t>
+  </si>
+  <si>
+    <t>Treasury Yield 10 Years (^TNX)</t>
+  </si>
+  <si>
+    <t>Bonos del estado</t>
+  </si>
+  <si>
+    <t>BonosUSA</t>
+  </si>
+  <si>
+    <t>Bonos</t>
+  </si>
+  <si>
+    <t>BonosEuro</t>
+  </si>
+  <si>
+    <t>VTB Eurobond Index GEM EURO (VTBEUGEM.ME)</t>
+  </si>
+  <si>
+    <t>EU</t>
+  </si>
+  <si>
+    <t>Francia</t>
+  </si>
+  <si>
+    <t>Alemania</t>
+  </si>
+  <si>
+    <t>España</t>
+  </si>
+  <si>
+    <t>BonosFrancia</t>
+  </si>
+  <si>
+    <t>BonosAlemania</t>
+  </si>
+  <si>
+    <t>BonosEspaña</t>
   </si>
 </sst>
 </file>
@@ -912,7 +957,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -968,6 +1013,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1249,10 +1295,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13394C52-13BF-4879-9BED-75C0D250A696}">
-  <dimension ref="A2:M42"/>
+  <dimension ref="A2:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45:J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1261,6 +1307,7 @@
     <col min="6" max="6" width="31.7109375" customWidth="1"/>
     <col min="7" max="7" width="5.28515625" customWidth="1"/>
     <col min="8" max="8" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21" customWidth="1"/>
     <col min="10" max="10" width="33" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="13.140625" customWidth="1"/>
     <col min="13" max="13" width="34" customWidth="1"/>
@@ -1273,7 +1320,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E3" s="30" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1932,7 +1979,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="33" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F33" t="s">
         <v>207</v>
       </c>
@@ -1952,7 +1999,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="34" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F34" t="s">
         <v>207</v>
       </c>
@@ -1972,7 +2019,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="35" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F35" t="s">
         <v>112</v>
       </c>
@@ -1980,7 +2027,7 @@
         <v>30</v>
       </c>
       <c r="H35" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I35" t="s">
         <v>187</v>
@@ -1989,7 +2036,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="36" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F36" t="s">
         <v>112</v>
       </c>
@@ -1997,7 +2044,7 @@
         <v>31</v>
       </c>
       <c r="H36" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I36" t="s">
         <v>188</v>
@@ -2006,7 +2053,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="37" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F37" t="s">
         <v>112</v>
       </c>
@@ -2014,7 +2061,7 @@
         <v>32</v>
       </c>
       <c r="H37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I37" t="s">
         <v>189</v>
@@ -2023,7 +2070,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="38" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
         <v>112</v>
       </c>
@@ -2031,7 +2078,7 @@
         <v>33</v>
       </c>
       <c r="H38" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I38" t="s">
         <v>190</v>
@@ -2040,7 +2087,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="39" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F39" t="s">
         <v>112</v>
       </c>
@@ -2048,7 +2095,7 @@
         <v>34</v>
       </c>
       <c r="H39" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I39" t="s">
         <v>184</v>
@@ -2057,7 +2104,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="40" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F40" t="s">
         <v>206</v>
       </c>
@@ -2065,19 +2112,19 @@
         <v>35</v>
       </c>
       <c r="H40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I40" t="s">
+        <v>234</v>
+      </c>
+      <c r="J40" t="s">
         <v>219</v>
-      </c>
-      <c r="J40" t="s">
-        <v>220</v>
       </c>
       <c r="L40" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="41" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F41" t="s">
         <v>206</v>
       </c>
@@ -2085,19 +2132,19 @@
         <v>36</v>
       </c>
       <c r="H41" t="s">
+        <v>224</v>
+      </c>
+      <c r="I41" t="s">
         <v>225</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>226</v>
       </c>
-      <c r="J41" t="s">
+      <c r="L41" t="s">
         <v>227</v>
       </c>
-      <c r="L41" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="42" spans="6:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F42" t="s">
         <v>206</v>
       </c>
@@ -2105,16 +2152,110 @@
         <v>37</v>
       </c>
       <c r="H42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I42" t="s">
+        <v>228</v>
+      </c>
+      <c r="J42" t="s">
         <v>229</v>
       </c>
-      <c r="J42" t="s">
+      <c r="L42" t="s">
         <v>230</v>
       </c>
-      <c r="L42" t="s">
-        <v>231</v>
+    </row>
+    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>232</v>
+      </c>
+      <c r="F43" t="s">
+        <v>236</v>
+      </c>
+      <c r="H43" t="s">
+        <v>238</v>
+      </c>
+      <c r="I43" t="s">
+        <v>237</v>
+      </c>
+      <c r="J43" t="s">
+        <v>235</v>
+      </c>
+      <c r="L43" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>233</v>
+      </c>
+      <c r="F44" t="s">
+        <v>236</v>
+      </c>
+      <c r="H44" t="s">
+        <v>238</v>
+      </c>
+      <c r="I44" t="s">
+        <v>239</v>
+      </c>
+      <c r="J44" t="s">
+        <v>240</v>
+      </c>
+      <c r="L44" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>233</v>
+      </c>
+      <c r="F45" t="s">
+        <v>236</v>
+      </c>
+      <c r="H45" t="s">
+        <v>238</v>
+      </c>
+      <c r="I45" t="s">
+        <v>245</v>
+      </c>
+      <c r="J45" s="31"/>
+      <c r="L45" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>233</v>
+      </c>
+      <c r="F46" t="s">
+        <v>236</v>
+      </c>
+      <c r="H46" t="s">
+        <v>238</v>
+      </c>
+      <c r="I46" t="s">
+        <v>246</v>
+      </c>
+      <c r="J46" s="31"/>
+      <c r="L46" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>233</v>
+      </c>
+      <c r="F47" t="s">
+        <v>236</v>
+      </c>
+      <c r="H47" t="s">
+        <v>238</v>
+      </c>
+      <c r="I47" t="s">
+        <v>247</v>
+      </c>
+      <c r="J47" s="31"/>
+      <c r="L47" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/docs/climatrade.xlsx
+++ b/docs/climatrade.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D48A89-D8C1-4B0F-8CE6-D2359D01320D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E7F618-7931-4469-8B11-5AF0BF32AFE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="UseCase_trading001" sheetId="3" r:id="rId1"/>
-    <sheet name="KAMs_geosocial" sheetId="1" r:id="rId2"/>
-    <sheet name="KSH log" sheetId="2" r:id="rId3"/>
+    <sheet name="UseCases_002" sheetId="4" r:id="rId1"/>
+    <sheet name="UseCase_trading001" sheetId="3" r:id="rId2"/>
+    <sheet name="KAMs_geosocial" sheetId="1" r:id="rId3"/>
+    <sheet name="KSH log" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="UNI_AA_VERSION" hidden="1">"322.3.0"</definedName>
@@ -43,6 +44,8 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -50,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="312">
   <si>
     <t>KAM</t>
   </si>
@@ -794,13 +797,205 @@
   </si>
   <si>
     <t>BonosEspaña</t>
+  </si>
+  <si>
+    <t>CADJPY</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>EURCAD</t>
+  </si>
+  <si>
+    <t>EURGBP</t>
+  </si>
+  <si>
+    <t>EURJPY</t>
+  </si>
+  <si>
+    <t>GBPJPY</t>
+  </si>
+  <si>
+    <t>NZDJPY</t>
+  </si>
+  <si>
+    <t>USDDKK</t>
+  </si>
+  <si>
+    <t>USDJPY</t>
+  </si>
+  <si>
+    <t>USDSEK</t>
+  </si>
+  <si>
+    <t>USDSGD</t>
+  </si>
+  <si>
+    <t>GBPUSD</t>
+  </si>
+  <si>
+    <t>EURUSD</t>
+  </si>
+  <si>
+    <t>FTSE100</t>
+  </si>
+  <si>
+    <t>USDEUR</t>
+  </si>
+  <si>
+    <t>Cause</t>
+  </si>
+  <si>
+    <t>Effect</t>
+  </si>
+  <si>
+    <t>Sign</t>
+  </si>
+  <si>
+    <t>Markets Environment</t>
+  </si>
+  <si>
+    <t>Santander</t>
+  </si>
+  <si>
+    <t>Telefonica</t>
+  </si>
+  <si>
+    <t>Weather</t>
+  </si>
+  <si>
+    <t>Social Mood</t>
+  </si>
+  <si>
+    <t>Hypothesis</t>
+  </si>
+  <si>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Calendar</t>
+  </si>
+  <si>
+    <t>Moon</t>
+  </si>
+  <si>
+    <t>Daylight</t>
+  </si>
+  <si>
+    <t>Flights</t>
+  </si>
+  <si>
+    <t>FIFA</t>
+  </si>
+  <si>
+    <t>OECD1</t>
+  </si>
+  <si>
+    <t>OECD2</t>
+  </si>
+  <si>
+    <t>OECD3</t>
+  </si>
+  <si>
+    <t>Temp</t>
+  </si>
+  <si>
+    <t>Precip</t>
+  </si>
+  <si>
+    <t>#Searches</t>
+  </si>
+  <si>
+    <t>Sentiment</t>
+  </si>
+  <si>
+    <t>by concept</t>
+  </si>
+  <si>
+    <t>by term</t>
+  </si>
+  <si>
+    <t>by city</t>
+  </si>
+  <si>
+    <t>by country/region</t>
+  </si>
+  <si>
+    <t>by country/global</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>by country/region/global</t>
+  </si>
+  <si>
+    <t>Countries</t>
+  </si>
+  <si>
+    <t>Cities</t>
+  </si>
+  <si>
+    <t>Concepts</t>
+  </si>
+  <si>
+    <t>SearchTerms</t>
+  </si>
+  <si>
+    <t>Regions</t>
+  </si>
+  <si>
+    <t>USDMXN (MXN=X)</t>
+  </si>
+  <si>
+    <t>USDARS (ARS=X)</t>
+  </si>
+  <si>
+    <t>USDBRL (BRL=X)</t>
+  </si>
+  <si>
+    <t>USDCLP (CLP=X)</t>
+  </si>
+  <si>
+    <t>USDPEN (PEN=X)</t>
+  </si>
+  <si>
+    <t>USDCOP (COP=X)</t>
+  </si>
+  <si>
+    <t>IBEX 35 (^IBEX)</t>
+  </si>
+  <si>
+    <t>CADUSD</t>
+  </si>
+  <si>
+    <t>AUDUSD</t>
+  </si>
+  <si>
+    <t>NZDUSD</t>
+  </si>
+  <si>
+    <t>USDCHF</t>
+  </si>
+  <si>
+    <t>USDCAD</t>
+  </si>
+  <si>
+    <t>NIKKEI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -843,8 +1038,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -860,6 +1061,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,7 +1164,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1014,9 +1221,29 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1294,14 +1521,793 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{970B76F3-9988-4770-BFE2-5C87663BDAB0}">
+  <dimension ref="B2:V48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="2" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C2" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2" s="38"/>
+      <c r="E2" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="L2" s="38"/>
+      <c r="P2" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q2" s="38"/>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B3" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>281</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>284</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>274</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="P3" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q3" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="R3" s="40" t="s">
+        <v>294</v>
+      </c>
+      <c r="S3" s="40" t="s">
+        <v>295</v>
+      </c>
+      <c r="T3" s="40" t="s">
+        <v>298</v>
+      </c>
+      <c r="U3" s="40" t="s">
+        <v>296</v>
+      </c>
+      <c r="V3" s="40" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B4" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>293</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>293</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>293</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="K4" s="39" t="s">
+        <v>288</v>
+      </c>
+      <c r="L4" s="39" t="s">
+        <v>287</v>
+      </c>
+      <c r="M4" s="39" t="s">
+        <v>291</v>
+      </c>
+      <c r="N4" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="O4" s="39" t="s">
+        <v>290</v>
+      </c>
+      <c r="P4" s="41" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q4" s="39" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B5" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B6" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B7" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B8" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B9" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B10" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B11" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B12" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B13" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B14" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B15" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B16" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="C30" s="35" t="s">
+        <v>300</v>
+      </c>
+      <c r="D30" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>301</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="D33" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="C35" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="C39" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>307</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D41" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="D42" s="35" t="s">
+        <v>307</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="C43" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="D43" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="C44" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="D44" s="35" t="s">
+        <v>307</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="C45" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="D45" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="C46" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="D46" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="C47" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="D47" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="C48" s="35" t="s">
+        <v>311</v>
+      </c>
+      <c r="D48" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:D21">
+    <sortCondition ref="C5:C21"/>
+  </sortState>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13394C52-13BF-4879-9BED-75C0D250A696}">
   <dimension ref="A2:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45:J47"/>
+    <sheetView topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="28" customWidth="1"/>
     <col min="6" max="6" width="31.7109375" customWidth="1"/>
@@ -2268,7 +3274,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2279,7 +3285,7 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="4" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="4"/>
@@ -3276,7 +4282,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C653361-0E28-411E-986A-897E7409EC03}">
   <dimension ref="B7:F9"/>
   <sheetViews>
@@ -3284,7 +4290,7 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="6.28515625" bestFit="1" customWidth="1"/>

--- a/docs/climatrade.xlsx
+++ b/docs/climatrade.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E7F618-7931-4469-8B11-5AF0BF32AFE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158F7CA7-DFEB-4B2E-8069-C693C48A4611}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1243,7 +1243,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1525,12 +1525,13 @@
   <dimension ref="B2:V48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="2" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="22.85546875" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
@@ -2290,7 +2291,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:D21">
+  <sortState ref="B4:D21">
     <sortCondition ref="C5:C21"/>
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2307,7 +2308,7 @@
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="28" customWidth="1"/>
     <col min="6" max="6" width="31.7109375" customWidth="1"/>
@@ -3285,7 +3286,7 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="4" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="4"/>
@@ -4290,7 +4291,7 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
